--- a/Application Bs4/Data/TD-88-90.xlsx
+++ b/Application Bs4/Data/TD-88-90.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\SBR for Github\TestFunctionSBR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F323F50-A579-4E73-A324-65F87566D674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42353081-DB18-DA4A-9A68-24A734B2775C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{679FE50E-3207-428B-B83F-2F678B6EB846}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{679FE50E-3207-428B-B83F-2F678B6EB846}"/>
   </bookViews>
   <sheets>
     <sheet name="TD" sheetId="2" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>age</t>
+    <t>Lx</t>
   </si>
   <si>
-    <t>Lx</t>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -391,24 +391,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A445DE7-A606-4A4A-BC8E-91DB692BD8E7}">
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -416,7 +414,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -424,7 +422,7 @@
         <v>99129</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -432,7 +430,7 @@
         <v>99057</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -440,7 +438,7 @@
         <v>99010</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -448,7 +446,7 @@
         <v>98977</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -456,7 +454,7 @@
         <v>98948</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -464,7 +462,7 @@
         <v>98921</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -472,7 +470,7 @@
         <v>98897</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -480,7 +478,7 @@
         <v>98876</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -488,7 +486,7 @@
         <v>98855</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -496,7 +494,7 @@
         <v>98835</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -504,7 +502,7 @@
         <v>98814</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -512,7 +510,7 @@
         <v>98793</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -520,7 +518,7 @@
         <v>98771</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -528,7 +526,7 @@
         <v>98745</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -536,7 +534,7 @@
         <v>98712</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -544,7 +542,7 @@
         <v>98667</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -552,7 +550,7 @@
         <v>98606</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -560,7 +558,7 @@
         <v>98520</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -568,7 +566,7 @@
         <v>98406</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -576,7 +574,7 @@
         <v>98277</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -584,7 +582,7 @@
         <v>98137</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -592,7 +590,7 @@
         <v>97987</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -600,7 +598,7 @@
         <v>97830</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -608,7 +606,7 @@
         <v>97677</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -616,7 +614,7 @@
         <v>97524</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -624,7 +622,7 @@
         <v>97373</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -632,7 +630,7 @@
         <v>97222</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -640,7 +638,7 @@
         <v>97070</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -648,7 +646,7 @@
         <v>96916</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -656,7 +654,7 @@
         <v>96759</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -664,7 +662,7 @@
         <v>96597</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -672,7 +670,7 @@
         <v>96429</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -680,7 +678,7 @@
         <v>96255</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -688,7 +686,7 @@
         <v>96071</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -696,7 +694,7 @@
         <v>95878</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -704,7 +702,7 @@
         <v>95676</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -712,7 +710,7 @@
         <v>95463</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -720,7 +718,7 @@
         <v>95237</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -728,7 +726,7 @@
         <v>94997</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -736,7 +734,7 @@
         <v>94746</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -744,7 +742,7 @@
         <v>94476</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -752,7 +750,7 @@
         <v>94182</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -760,7 +758,7 @@
         <v>93868</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -768,7 +766,7 @@
         <v>93515</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -776,7 +774,7 @@
         <v>93133</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -784,7 +782,7 @@
         <v>92727</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -792,7 +790,7 @@
         <v>92295</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -800,7 +798,7 @@
         <v>91833</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -808,7 +806,7 @@
         <v>91332</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -816,7 +814,7 @@
         <v>90778</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -824,7 +822,7 @@
         <v>90171</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -832,7 +830,7 @@
         <v>89511</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -840,7 +838,7 @@
         <v>88791</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -848,7 +846,7 @@
         <v>88011</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -856,7 +854,7 @@
         <v>87165</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -864,7 +862,7 @@
         <v>86241</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -872,7 +870,7 @@
         <v>85256</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -880,7 +878,7 @@
         <v>84211</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -888,7 +886,7 @@
         <v>83083</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -896,7 +894,7 @@
         <v>81884</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -904,7 +902,7 @@
         <v>80602</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -912,7 +910,7 @@
         <v>79243</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -920,7 +918,7 @@
         <v>77807</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -928,7 +926,7 @@
         <v>76295</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -936,7 +934,7 @@
         <v>74720</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -944,7 +942,7 @@
         <v>73075</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -952,7 +950,7 @@
         <v>71366</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -960,7 +958,7 @@
         <v>69559</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -968,7 +966,7 @@
         <v>67655</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -976,7 +974,7 @@
         <v>65649</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -984,7 +982,7 @@
         <v>63543</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -992,7 +990,7 @@
         <v>61285</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>58911</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1008,7 +1006,7 @@
         <v>56416</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1016,7 +1014,7 @@
         <v>53818</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1024,7 +1022,7 @@
         <v>51086</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1032,7 +1030,7 @@
         <v>48251</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1040,7 +1038,7 @@
         <v>45284</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1048,7 +1046,7 @@
         <v>42203</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1056,7 +1054,7 @@
         <v>39041</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1064,7 +1062,7 @@
         <v>35824</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>32518</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1080,7 +1078,7 @@
         <v>29220</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1088,7 +1086,7 @@
         <v>25962</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>22780</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1104,7 +1102,7 @@
         <v>19725</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1112,7 +1110,7 @@
         <v>16843</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1120,7 +1118,7 @@
         <v>14133</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1128,7 +1126,7 @@
         <v>11625</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1136,7 +1134,7 @@
         <v>9389</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1144,7 +1142,7 @@
         <v>7438</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>5763</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1160,7 +1158,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1168,7 +1166,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1176,7 +1174,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1184,7 +1182,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1200,7 +1198,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1208,7 +1206,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1216,7 +1214,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -1224,7 +1222,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -1232,7 +1230,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -1240,7 +1238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -1248,7 +1246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -1256,7 +1254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -1264,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -1272,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -1280,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -1288,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -1296,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
